--- a/Data/leafarea_machinelearning.xlsx
+++ b/Data/leafarea_machinelearning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5204897_ad_unsw_edu_au2/Documents/Desktop/PhD/Data_analysis/Data/img/Mangrove_leaves/predicted_from_Karina/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5204897_ad_unsw_edu_au2/Documents/Desktop/PhD/Data_analysis/Project/Functional_traits/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="470" documentId="8_{CF7F7A0D-55D7-4566-BDC8-934EF854C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{305A8032-04ED-45E5-B670-E9AEC0538778}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="8_{CF7F7A0D-55D7-4566-BDC8-934EF854C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{073DB57B-8041-4A6E-9902-CB0807ABB0ED}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="5205" windowWidth="26625" windowHeight="12825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="working" sheetId="1" r:id="rId1"/>
@@ -10237,7 +10237,7 @@
   <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D175"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10303,10 +10303,10 @@
         <v>55</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1788.6785714285713</v>
+        <v>2061.6214285714286</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>77</v>
@@ -10326,7 +10326,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D66" si="0">_xlfn.CONCAT(B3,C3)</f>
+        <f>_xlfn.CONCAT(B3,C3)</f>
         <v>SI4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -10336,10 +10336,10 @@
         <v>55</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2061.6214285714286</v>
+        <v>2111.5928571428572</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>77</v>
@@ -10359,7 +10359,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B4,C4)</f>
         <v>SI4</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -10369,10 +10369,10 @@
         <v>55</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2111.5928571428572</v>
+        <v>1788.6785714285713</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>77</v>
@@ -10392,7 +10392,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B5,C5)</f>
         <v>SI4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -10402,10 +10402,10 @@
         <v>55</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>2242.6357142857141</v>
+        <v>2199.9857142857145</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>77</v>
@@ -10425,7 +10425,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B6,C6)</f>
         <v>SI4</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -10435,10 +10435,10 @@
         <v>55</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>2199.9857142857145</v>
+        <v>2242.6357142857141</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>77</v>
@@ -10449,29 +10449,29 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B7,C7)</f>
+        <v>SI4</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2883.4214285714284</v>
+        <v>2637.7785714285715</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>77</v>
@@ -10482,29 +10482,29 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B8,C8)</f>
+        <v>SI4</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2037.5428571428572</v>
+        <v>748.94285714285718</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>77</v>
@@ -10515,62 +10515,62 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B9,C9)</f>
+        <v>SI4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>1109</v>
+        <v>1170.6214285714286</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B10,C10)</f>
+        <v>SI4</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>2382</v>
+        <v>1029</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>80</v>
@@ -10581,95 +10581,95 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B11,C11)</f>
+        <v>SI4</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>1227</v>
+        <v>1376.7928571428572</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B12,C12)</f>
+        <v>SI4</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1761.1428571428571</v>
+        <v>1847</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B13,C13)</f>
+        <v>SI4</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2251.2857142857142</v>
+        <v>1926.0428571428572</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>77</v>
@@ -10680,29 +10680,29 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B14,C14)</f>
+        <v>SI4</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1811.5285714285715</v>
+        <v>2463.6357142857141</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>77</v>
@@ -10713,29 +10713,29 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B15,C15)</f>
+        <v>SI4</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>2067.4714285714285</v>
+        <v>946.90714285714284</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>77</v>
@@ -10746,29 +10746,29 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B16,C16)</f>
+        <v>SI4</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>2861.7357142857145</v>
+        <v>1304.6928571428571</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>77</v>
@@ -10779,29 +10779,29 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B17,C17)</f>
+        <v>SI4</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2109.0500000000002</v>
+        <v>1185.3857142857144</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>77</v>
@@ -10812,29 +10812,29 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B18,C18)</f>
+        <v>SI4</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2022.4214285714286</v>
+        <v>1678.0357142857142</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>77</v>
@@ -10845,29 +10845,29 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B19,C19)</f>
+        <v>SI4</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>2392.792857142857</v>
+        <v>1865.3571428571429</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>77</v>
@@ -10878,29 +10878,29 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B20,C20)</f>
+        <v>SI4</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>2157.0714285714284</v>
+        <v>2462.5142857142855</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>77</v>
@@ -10911,29 +10911,29 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B21,C21)</f>
+        <v>SI4</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>1393.3071428571429</v>
+        <v>948.96428571428567</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>77</v>
@@ -10944,29 +10944,29 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B22,C22)</f>
+        <v>SI4</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>2980.542857142857</v>
+        <v>3123.9142857142856</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>77</v>
@@ -10977,29 +10977,29 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B23,C23)</f>
+        <v>SI4</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>3309.7571428571428</v>
+        <v>2982.8142857142857</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>77</v>
@@ -11010,29 +11010,29 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B24,C24)</f>
+        <v>SI4</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
-        <v>2841.5357142857142</v>
+        <v>1143.4928571428572</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>77</v>
@@ -11043,29 +11043,29 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B25,C25)</f>
+        <v>SI4</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>2436.7785714285715</v>
+        <v>973.56428571428569</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>77</v>
@@ -11076,29 +11076,29 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B26,C26)</f>
+        <v>SI4</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>1531.0428571428572</v>
+        <v>2010.8642857142856</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>77</v>
@@ -11115,23 +11115,23 @@
         <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B27,C27)</f>
+        <v>SI5</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3123.9142857142856</v>
+        <v>1830.5071428571428</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>77</v>
@@ -11148,23 +11148,23 @@
         <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B28,C28)</f>
+        <v>SI5</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>2010.8642857142856</v>
+        <v>1821.6428571428571</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>77</v>
@@ -11181,23 +11181,23 @@
         <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B29,C29)</f>
+        <v>SI5</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>2982.8142857142857</v>
+        <v>1353.7214285714285</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>77</v>
@@ -11214,23 +11214,23 @@
         <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B30,C30)</f>
+        <v>SI5</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>1143.4928571428572</v>
+        <v>2220.9714285714285</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>77</v>
@@ -11247,23 +11247,23 @@
         <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B31,C31)</f>
+        <v>SI5</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>973.56428571428569</v>
+        <v>2364.1142857142859</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>77</v>
@@ -11274,29 +11274,29 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B32,C32)</f>
+        <v>SI5</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1006.35</v>
+        <v>1176.4214285714286</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>77</v>
@@ -11307,29 +11307,29 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B33,C33)</f>
+        <v>SI5</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>2082.2857142857142</v>
+        <v>1428.3428571428572</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>77</v>
@@ -11340,29 +11340,29 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B34,C34)</f>
+        <v>SI5</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>1512.2214285714285</v>
+        <v>2837.957142857143</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>77</v>
@@ -11373,29 +11373,29 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B35,C35)</f>
+        <v>SI5</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>2106.0500000000002</v>
+        <v>1324.1071428571429</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>77</v>
@@ -11406,29 +11406,29 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B36,C36)</f>
+        <v>SI5</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G36">
         <v>5</v>
       </c>
       <c r="H36">
-        <v>2271.1642857142856</v>
+        <v>1575.6285714285714</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>77</v>
@@ -11439,95 +11439,95 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B37,C37)</f>
+        <v>SI5</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>1994.4357142857143</v>
+        <v>747</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B38,C38)</f>
+        <v>SI5</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>1133.9714285714285</v>
+        <v>615</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B39,C39)</f>
+        <v>SI5</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>1265.0142857142857</v>
+        <v>2224</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>77</v>
@@ -11538,29 +11538,29 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B40,C40)</f>
+        <v>SI5</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>1529.9785714285715</v>
+        <v>2191.9785714285713</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>77</v>
@@ -11571,29 +11571,29 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B41,C41)</f>
+        <v>SI5</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>1543.3357142857142</v>
+        <v>2443.9642857142858</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>77</v>
@@ -11613,7 +11613,7 @@
         <v>55</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B42,C42)</f>
         <v>SI5</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -11623,10 +11623,10 @@
         <v>64</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>2281.4928571428572</v>
+        <v>1344.8857142857144</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>77</v>
@@ -11646,7 +11646,7 @@
         <v>55</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B43,C43)</f>
         <v>SI5</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -11656,10 +11656,10 @@
         <v>64</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>2443.9642857142858</v>
+        <v>1659.1071428571429</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>77</v>
@@ -11679,7 +11679,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B44,C44)</f>
         <v>SI5</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -11689,16 +11689,16 @@
         <v>64</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H44">
-        <v>1344.8857142857144</v>
+        <v>1246</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -11712,7 +11712,7 @@
         <v>55</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B45,C45)</f>
         <v>SI5</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -11722,10 +11722,10 @@
         <v>64</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>1659.1071428571429</v>
+        <v>2281.4928571428572</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>77</v>
@@ -11745,26 +11745,26 @@
         <v>55</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B46,C46)</f>
         <v>SI5</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1246</v>
+        <v>2126.6</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -11778,26 +11778,26 @@
         <v>55</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B47,C47)</f>
         <v>SI5</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>747</v>
+        <v>1205.0214285714285</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -11811,26 +11811,26 @@
         <v>55</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B48,C48)</f>
         <v>SI5</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>615</v>
+        <v>926.82857142857142</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -11844,26 +11844,26 @@
         <v>55</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B49,C49)</f>
         <v>SI5</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>2224</v>
+        <v>1440</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -11877,20 +11877,20 @@
         <v>55</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B50,C50)</f>
         <v>SI5</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>2191.9785714285713</v>
+        <v>1312.2785714285715</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>77</v>
@@ -11907,23 +11907,23 @@
         <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B51,C51)</f>
+        <v>YCW1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1803.4285714285713</v>
+        <v>3309.7571428571428</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>77</v>
@@ -11940,23 +11940,23 @@
         <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B52,C52)</f>
+        <v>YCW1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <v>2808.207142857143</v>
+        <v>1531.0428571428572</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>77</v>
@@ -11973,23 +11973,23 @@
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B53,C53)</f>
+        <v>YCW1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>1450.9785714285715</v>
+        <v>2841.5357142857142</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>77</v>
@@ -12006,23 +12006,23 @@
         <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B54,C54)</f>
+        <v>YCW1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>1950.8357142857142</v>
+        <v>2980.542857142857</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>77</v>
@@ -12039,23 +12039,23 @@
         <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B55,C55)</f>
+        <v>YCW1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H55">
-        <v>782.53571428571433</v>
+        <v>2436.7785714285715</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>77</v>
@@ -12072,11 +12072,11 @@
         <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B56,C56)</f>
+        <v>YCW1</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>72</v>
@@ -12088,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1094.9142857142858</v>
+        <v>2530.3142857142857</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>77</v>
@@ -12105,11 +12105,11 @@
         <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B57,C57)</f>
+        <v>YCW1</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>72</v>
@@ -12118,10 +12118,10 @@
         <v>65</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>1824.0214285714285</v>
+        <v>1570.8428571428572</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>77</v>
@@ -12138,11 +12138,11 @@
         <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B58,C58)</f>
+        <v>YCW1</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>72</v>
@@ -12151,10 +12151,10 @@
         <v>65</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>562.37142857142862</v>
+        <v>1045.4000000000001</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>77</v>
@@ -12171,11 +12171,11 @@
         <v>56</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B59,C59)</f>
+        <v>YCW1</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -12184,10 +12184,10 @@
         <v>65</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>1796.8785714285714</v>
+        <v>822.69285714285718</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>77</v>
@@ -12204,11 +12204,11 @@
         <v>56</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B60,C60)</f>
+        <v>YCW1</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>72</v>
@@ -12217,43 +12217,43 @@
         <v>65</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H60">
-        <v>2626</v>
+        <v>995.69285714285718</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B61,C61)</f>
+        <v>YCW1</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>1865.3571428571429</v>
+        <v>2693.5071428571428</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>77</v>
@@ -12264,29 +12264,29 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B62,C62)</f>
+        <v>YCW1</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>2462.5142857142855</v>
+        <v>1376.1214285714286</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>77</v>
@@ -12297,29 +12297,29 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B63,C63)</f>
+        <v>YCW1</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>1185.3857142857144</v>
+        <v>1478.3071428571429</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>77</v>
@@ -12330,62 +12330,62 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B64,C64)</f>
+        <v>YCW1</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>1678.0357142857142</v>
+        <v>1232</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B65,C65)</f>
+        <v>YCW1</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G65">
         <v>5</v>
       </c>
       <c r="H65">
-        <v>948.96428571428567</v>
+        <v>1124.9714285714285</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>77</v>
@@ -12402,23 +12402,23 @@
         <v>56</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B66,C66)</f>
+        <v>YCW1</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1754.0285714285715</v>
+        <v>2106.0500000000002</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>77</v>
@@ -12435,23 +12435,23 @@
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f t="shared" ref="D67:D130" si="1">_xlfn.CONCAT(B67,C67)</f>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B67,C67)</f>
+        <v>YCW1</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
       <c r="H67">
-        <v>1377.5357142857142</v>
+        <v>1512.2214285714285</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>77</v>
@@ -12468,23 +12468,23 @@
         <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B68,C68)</f>
+        <v>YCW1</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>766.06428571428569</v>
+        <v>2082.2857142857142</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>77</v>
@@ -12501,23 +12501,23 @@
         <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B69,C69)</f>
+        <v>YCW1</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G69">
         <v>4</v>
       </c>
       <c r="H69">
-        <v>568.80714285714282</v>
+        <v>1006.35</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>77</v>
@@ -12534,23 +12534,23 @@
         <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B70,C70)</f>
+        <v>YCW1</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70">
-        <v>2083.8142857142857</v>
+        <v>2271.1642857142856</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>77</v>
@@ -12567,11 +12567,11 @@
         <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B71,C71)</f>
+        <v>YCW1</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>72</v>
@@ -12580,10 +12580,10 @@
         <v>60</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>2328.5928571428572</v>
+        <v>2437.4</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>77</v>
@@ -12600,11 +12600,11 @@
         <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D72" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B72,C72)</f>
+        <v>YCW1</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>72</v>
@@ -12616,7 +12616,7 @@
         <v>2</v>
       </c>
       <c r="H72">
-        <v>1858.5642857142857</v>
+        <v>835.87857142857138</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>77</v>
@@ -12633,11 +12633,11 @@
         <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B73,C73)</f>
+        <v>YCW1</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>72</v>
@@ -12649,7 +12649,7 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <v>1798.1714285714286</v>
+        <v>1381.45</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>77</v>
@@ -12666,11 +12666,11 @@
         <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B74,C74)</f>
+        <v>YCW1</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>72</v>
@@ -12682,7 +12682,7 @@
         <v>4</v>
       </c>
       <c r="H74">
-        <v>1475.0928571428572</v>
+        <v>2096.7285714285713</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>77</v>
@@ -12699,11 +12699,11 @@
         <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D75" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B75,C75)</f>
+        <v>YCW1</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>72</v>
@@ -12712,43 +12712,43 @@
         <v>60</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>1853</v>
+        <v>1752.7642857142857</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B76,C76)</f>
+        <v>YCW2</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>748.94285714285718</v>
+        <v>1529.9785714285715</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>77</v>
@@ -12759,29 +12759,29 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B77,C77)</f>
+        <v>YCW2</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>1376.7928571428572</v>
+        <v>1994.4357142857143</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>77</v>
@@ -12792,29 +12792,29 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B78,C78)</f>
+        <v>YCW2</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>2637.7785714285715</v>
+        <v>1133.9714285714285</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>77</v>
@@ -12825,29 +12825,29 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B79,C79)</f>
+        <v>YCW2</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>1170.6214285714286</v>
+        <v>1543.3357142857142</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>77</v>
@@ -12858,62 +12858,62 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B80,C80)</f>
+        <v>YCW2</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H80">
-        <v>1029</v>
+        <v>1265.0142857142857</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D81" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B81,C81)</f>
+        <v>YCW2</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>1353.7214285714285</v>
+        <v>1094.9142857142858</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>77</v>
@@ -12924,29 +12924,29 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B82,C82)</f>
+        <v>YCW2</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>2364.1142857142859</v>
+        <v>562.37142857142862</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>77</v>
@@ -12957,29 +12957,29 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B83,C83)</f>
+        <v>YCW2</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1830.5071428571428</v>
+        <v>1796.8785714285714</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>77</v>
@@ -12990,62 +12990,62 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B84,C84)</f>
+        <v>YCW2</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G84">
         <v>4</v>
       </c>
       <c r="H84">
-        <v>2220.9714285714285</v>
+        <v>2626</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B85,C85)</f>
+        <v>YCW2</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H85">
-        <v>1821.6428571428571</v>
+        <v>1824.0214285714285</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>77</v>
@@ -13065,20 +13065,20 @@
         <v>59</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B86,C86)</f>
         <v>YCW2</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>982.70714285714291</v>
+        <v>1399.6785714285713</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>77</v>
@@ -13098,20 +13098,20 @@
         <v>59</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B87,C87)</f>
         <v>YCW2</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>1742.5428571428572</v>
+        <v>2235.4428571428571</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>77</v>
@@ -13131,20 +13131,20 @@
         <v>59</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B88,C88)</f>
         <v>YCW2</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>2683.3785714285714</v>
+        <v>1615.7571428571428</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>77</v>
@@ -13164,20 +13164,20 @@
         <v>59</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B89,C89)</f>
         <v>YCW2</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H89">
-        <v>1686.6571428571428</v>
+        <v>768.18571428571431</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>77</v>
@@ -13197,20 +13197,20 @@
         <v>59</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B90,C90)</f>
         <v>YCW2</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G90">
         <v>5</v>
       </c>
       <c r="H90">
-        <v>1555.0571428571429</v>
+        <v>2212.957142857143</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>77</v>
@@ -13230,20 +13230,20 @@
         <v>59</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B91,C91)</f>
         <v>YCW2</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>2289</v>
+        <v>1686.6571428571428</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>77</v>
@@ -13263,20 +13263,20 @@
         <v>59</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B92,C92)</f>
         <v>YCW2</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>2207.4285714285716</v>
+        <v>982.70714285714291</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>77</v>
@@ -13296,20 +13296,20 @@
         <v>59</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B93,C93)</f>
         <v>YCW2</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
       <c r="H93">
-        <v>1640.4142857142858</v>
+        <v>1742.5428571428572</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>77</v>
@@ -13329,20 +13329,20 @@
         <v>59</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B94,C94)</f>
         <v>YCW2</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H94">
-        <v>2333.9428571428571</v>
+        <v>2683.3785714285714</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>77</v>
@@ -13362,20 +13362,20 @@
         <v>59</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B95,C95)</f>
         <v>YCW2</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G95">
         <v>5</v>
       </c>
       <c r="H95">
-        <v>1109.45</v>
+        <v>1555.0571428571429</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>77</v>
@@ -13395,20 +13395,20 @@
         <v>59</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B96,C96)</f>
         <v>YCW2</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>2235.4428571428571</v>
+        <v>2067.4714285714285</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>77</v>
@@ -13428,20 +13428,20 @@
         <v>59</v>
       </c>
       <c r="D97" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B97,C97)</f>
         <v>YCW2</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H97">
-        <v>2212.957142857143</v>
+        <v>1811.5285714285715</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>77</v>
@@ -13461,20 +13461,20 @@
         <v>59</v>
       </c>
       <c r="D98" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B98,C98)</f>
         <v>YCW2</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98">
-        <v>1399.6785714285713</v>
+        <v>2251.2857142857142</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>77</v>
@@ -13494,20 +13494,20 @@
         <v>59</v>
       </c>
       <c r="D99" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B99,C99)</f>
         <v>YCW2</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H99">
-        <v>1615.7571428571428</v>
+        <v>2861.7357142857145</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>77</v>
@@ -13527,20 +13527,20 @@
         <v>59</v>
       </c>
       <c r="D100" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B100,C100)</f>
         <v>YCW2</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H100">
-        <v>768.18571428571431</v>
+        <v>1761.1428571428571</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>77</v>
@@ -13560,20 +13560,20 @@
         <v>59</v>
       </c>
       <c r="D101" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B101,C101)</f>
         <v>YCW2</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>2455.0571428571429</v>
+        <v>2289</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>77</v>
@@ -13593,20 +13593,20 @@
         <v>59</v>
       </c>
       <c r="D102" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B102,C102)</f>
         <v>YCW2</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H102">
-        <v>3043.95</v>
+        <v>2333.9428571428571</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>77</v>
@@ -13626,20 +13626,20 @@
         <v>59</v>
       </c>
       <c r="D103" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B103,C103)</f>
         <v>YCW2</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>3460.5785714285716</v>
+        <v>1640.4142857142858</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>77</v>
@@ -13659,20 +13659,20 @@
         <v>59</v>
       </c>
       <c r="D104" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B104,C104)</f>
         <v>YCW2</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H104">
-        <v>4143.3357142857139</v>
+        <v>2207.4285714285716</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>77</v>
@@ -13692,26 +13692,26 @@
         <v>59</v>
       </c>
       <c r="D105" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B105,C105)</f>
         <v>YCW2</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G105">
         <v>5</v>
       </c>
       <c r="H105">
-        <v>956</v>
+        <v>1109.45</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -13722,23 +13722,23 @@
         <v>56</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D106" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B106,C106)</f>
+        <v>YCW2</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>1570.8428571428572</v>
+        <v>4143.3357142857139</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>77</v>
@@ -13755,23 +13755,23 @@
         <v>56</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D107" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B107,C107)</f>
+        <v>YCW2</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H107">
-        <v>995.69285714285718</v>
+        <v>3460.5785714285716</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>77</v>
@@ -13788,23 +13788,23 @@
         <v>56</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D108" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B108,C108)</f>
+        <v>YCW2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G108">
         <v>3</v>
       </c>
       <c r="H108">
-        <v>1045.4000000000001</v>
+        <v>2455.0571428571429</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>77</v>
@@ -13821,23 +13821,23 @@
         <v>56</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D109" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B109,C109)</f>
+        <v>YCW2</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>2530.3142857142857</v>
+        <v>3043.95</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>77</v>
@@ -13854,29 +13854,29 @@
         <v>56</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D110" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B110,C110)</f>
+        <v>YCW2</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H110">
-        <v>822.69285714285718</v>
+        <v>956</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -13887,23 +13887,23 @@
         <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="2" t="str">
+        <f>_xlfn.CONCAT(B111,C111)</f>
+        <v>YCW2</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D111" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW3</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G111">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>1018.6785714285714</v>
+        <v>1803.4285714285713</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>77</v>
@@ -13920,23 +13920,23 @@
         <v>56</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="2" t="str">
+        <f>_xlfn.CONCAT(B112,C112)</f>
+        <v>YCW2</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D112" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW3</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>1198.8714285714286</v>
+        <v>2808.207142857143</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>77</v>
@@ -13953,23 +13953,23 @@
         <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="2" t="str">
+        <f>_xlfn.CONCAT(B113,C113)</f>
+        <v>YCW2</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D113" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW3</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113">
-        <v>1255.7928571428572</v>
+        <v>1950.8357142857142</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>77</v>
@@ -13986,29 +13986,29 @@
         <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="2" t="str">
+        <f>_xlfn.CONCAT(B114,C114)</f>
+        <v>YCW2</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D114" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW3</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G114">
         <v>4</v>
       </c>
       <c r="H114">
-        <v>1722</v>
+        <v>782.53571428571433</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -14019,29 +14019,29 @@
         <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="2" t="str">
+        <f>_xlfn.CONCAT(B115,C115)</f>
+        <v>YCW2</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D115" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW3</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H115">
-        <v>1253</v>
+        <v>1450.9785714285715</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -14055,7 +14055,7 @@
         <v>59</v>
       </c>
       <c r="D116" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B116,C116)</f>
         <v>YCW2</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -14065,10 +14065,10 @@
         <v>54</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>3808.2714285714287</v>
+        <v>3263.6214285714286</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>77</v>
@@ -14088,7 +14088,7 @@
         <v>59</v>
       </c>
       <c r="D117" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B117,C117)</f>
         <v>YCW2</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -14098,10 +14098,10 @@
         <v>54</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>2535.8214285714284</v>
+        <v>2240.042857142857</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>77</v>
@@ -14121,7 +14121,7 @@
         <v>59</v>
       </c>
       <c r="D118" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B118,C118)</f>
         <v>YCW2</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -14131,10 +14131,10 @@
         <v>54</v>
       </c>
       <c r="G118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>2012.5642857142857</v>
+        <v>2535.8214285714284</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>77</v>
@@ -14154,7 +14154,7 @@
         <v>59</v>
       </c>
       <c r="D119" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B119,C119)</f>
         <v>YCW2</v>
       </c>
       <c r="E119" s="2" t="s">
@@ -14164,10 +14164,10 @@
         <v>54</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H119">
-        <v>3263.6214285714286</v>
+        <v>3808.2714285714287</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>77</v>
@@ -14187,7 +14187,7 @@
         <v>59</v>
       </c>
       <c r="D120" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(B120,C120)</f>
         <v>YCW2</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -14197,10 +14197,10 @@
         <v>54</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H120">
-        <v>2240.042857142857</v>
+        <v>2012.5642857142857</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>77</v>
@@ -14217,23 +14217,23 @@
         <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D121" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B121,C121)</f>
+        <v>YCW2</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>3307.5214285714287</v>
+        <v>1796.3214285714287</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>77</v>
@@ -14250,23 +14250,23 @@
         <v>56</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D122" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B122,C122)</f>
+        <v>YCW2</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H122">
-        <v>1911.6857142857143</v>
+        <v>1787.5857142857142</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>77</v>
@@ -14283,23 +14283,23 @@
         <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D123" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B123,C123)</f>
+        <v>YCW2</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H123">
-        <v>3258.05</v>
+        <v>873.58571428571429</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>77</v>
@@ -14316,23 +14316,23 @@
         <v>56</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D124" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B124,C124)</f>
+        <v>YCW2</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>3532.0928571428572</v>
+        <v>1619.0785714285714</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>77</v>
@@ -14349,122 +14349,122 @@
         <v>56</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D125" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B125,C125)</f>
+        <v>YCW2</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H125">
-        <v>2240</v>
+        <v>872.05714285714282</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D126" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B126,C126)</f>
+        <v>YCW3</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>2126.6</v>
+        <v>1109</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D127" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B127,C127)</f>
+        <v>YCW3</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127">
-        <v>926.82857142857142</v>
+        <v>2382</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D128" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B128,C128)</f>
+        <v>YCW3</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H128">
-        <v>1312.2785714285715</v>
+        <v>2883.4214285714284</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>77</v>
@@ -14475,95 +14475,95 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D129" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B129,C129)</f>
+        <v>YCW3</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H129">
-        <v>1205.0214285714285</v>
+        <v>1227</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D130" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B130,C130)</f>
+        <v>YCW3</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H130">
-        <v>1440</v>
+        <v>2037.5428571428572</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B131" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D131" s="2" t="str">
-        <f t="shared" ref="D131:D175" si="2">_xlfn.CONCAT(B131,C131)</f>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B131,C131)</f>
+        <v>YCW3</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>1575.6285714285714</v>
+        <v>1754.0285714285715</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>77</v>
@@ -14574,29 +14574,29 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B132" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D132" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B132,C132)</f>
+        <v>YCW3</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G132">
         <v>2</v>
       </c>
       <c r="H132">
-        <v>1428.3428571428572</v>
+        <v>1377.5357142857142</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>77</v>
@@ -14607,29 +14607,29 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B133" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B133,C133)</f>
+        <v>YCW3</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H133">
-        <v>1176.4214285714286</v>
+        <v>2083.8142857142857</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>77</v>
@@ -14640,29 +14640,29 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D134" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B134,C134)</f>
+        <v>YCW3</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G134">
         <v>4</v>
       </c>
       <c r="H134">
-        <v>1324.1071428571429</v>
+        <v>568.80714285714282</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>77</v>
@@ -14673,29 +14673,29 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D135" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SI5</v>
+        <f>_xlfn.CONCAT(B135,C135)</f>
+        <v>YCW3</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H135">
-        <v>2837.957142857143</v>
+        <v>766.06428571428569</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>77</v>
@@ -14712,29 +14712,29 @@
         <v>56</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D136" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B136,C136)</f>
+        <v>YCW3</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>2440.5571428571429</v>
+        <v>1253</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -14745,23 +14745,23 @@
         <v>56</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D137" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B137,C137)</f>
+        <v>YCW3</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137">
-        <v>1412.0857142857142</v>
+        <v>1255.7928571428572</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>77</v>
@@ -14778,23 +14778,23 @@
         <v>56</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D138" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B138,C138)</f>
+        <v>YCW3</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G138">
         <v>3</v>
       </c>
       <c r="H138">
-        <v>1822.1285714285714</v>
+        <v>1198.8714285714286</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>77</v>
@@ -14811,29 +14811,29 @@
         <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D139" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B139,C139)</f>
+        <v>YCW3</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H139">
-        <v>1744.6</v>
+        <v>1722</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -14844,23 +14844,23 @@
         <v>56</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D140" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW4</v>
+        <f>_xlfn.CONCAT(B140,C140)</f>
+        <v>YCW3</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H140">
-        <v>1239.3928571428571</v>
+        <v>1018.6785714285714</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>77</v>
@@ -14877,23 +14877,23 @@
         <v>56</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D141" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B141,C141)</f>
+        <v>YCW3</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G141">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>2693.5071428571428</v>
+        <v>1590.8428571428572</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>77</v>
@@ -14910,23 +14910,23 @@
         <v>56</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D142" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B142,C142)</f>
+        <v>YCW3</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H142">
-        <v>1478.3071428571429</v>
+        <v>1730.2857142857142</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>77</v>
@@ -14943,23 +14943,23 @@
         <v>56</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D143" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B143,C143)</f>
+        <v>YCW3</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H143">
-        <v>1124.9714285714285</v>
+        <v>1600.6071428571429</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>77</v>
@@ -14976,23 +14976,23 @@
         <v>56</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D144" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B144,C144)</f>
+        <v>YCW3</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>1376.1214285714286</v>
+        <v>1215.5785714285714</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>77</v>
@@ -15009,29 +15009,29 @@
         <v>56</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D145" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B145,C145)</f>
+        <v>YCW3</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H145">
-        <v>1232</v>
+        <v>1615.4214285714286</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -15042,23 +15042,23 @@
         <v>56</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D146" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B146,C146)</f>
+        <v>YCW3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>1787.5857142857142</v>
+        <v>2392.792857142857</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>77</v>
@@ -15075,23 +15075,23 @@
         <v>56</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D147" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B147,C147)</f>
+        <v>YCW3</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H147">
-        <v>1619.0785714285714</v>
+        <v>2157.0714285714284</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>77</v>
@@ -15108,23 +15108,23 @@
         <v>56</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D148" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B148,C148)</f>
+        <v>YCW3</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148">
-        <v>1796.3214285714287</v>
+        <v>2109.0500000000002</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>77</v>
@@ -15141,23 +15141,23 @@
         <v>56</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D149" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B149,C149)</f>
+        <v>YCW3</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H149">
-        <v>872.05714285714282</v>
+        <v>1393.3071428571429</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>77</v>
@@ -15174,23 +15174,23 @@
         <v>56</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D150" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW2</v>
+        <f>_xlfn.CONCAT(B150,C150)</f>
+        <v>YCW3</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G150">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H150">
-        <v>873.58571428571429</v>
+        <v>2022.4214285714286</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>77</v>
@@ -15201,29 +15201,29 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D151" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B151,C151)</f>
+        <v>YCW4</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>946.90714285714284</v>
+        <v>1412.0857142857142</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>77</v>
@@ -15234,29 +15234,29 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B152" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D152" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B152,C152)</f>
+        <v>YCW4</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G152">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H152">
-        <v>1304.6928571428571</v>
+        <v>1744.6</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>77</v>
@@ -15267,29 +15267,29 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B153" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D153" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B153,C153)</f>
+        <v>YCW4</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G153">
         <v>3</v>
       </c>
       <c r="H153">
-        <v>2463.6357142857141</v>
+        <v>1822.1285714285714</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>77</v>
@@ -15300,29 +15300,29 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D154" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B154,C154)</f>
+        <v>YCW4</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H154">
-        <v>1926.0428571428572</v>
+        <v>1239.3928571428571</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>77</v>
@@ -15333,35 +15333,35 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D155" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SI4</v>
+        <f>_xlfn.CONCAT(B155,C155)</f>
+        <v>YCW4</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H155">
-        <v>1847</v>
+        <v>2440.5571428571429</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -15372,23 +15372,23 @@
         <v>56</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D156" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B156,C156)</f>
+        <v>YCW4</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>1730.2857142857142</v>
+        <v>3532.0928571428572</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>77</v>
@@ -15405,29 +15405,29 @@
         <v>56</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D157" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B157,C157)</f>
+        <v>YCW4</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>1600.6071428571429</v>
+        <v>2240</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -15438,23 +15438,23 @@
         <v>56</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D158" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B158,C158)</f>
+        <v>YCW4</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H158">
-        <v>1615.4214285714286</v>
+        <v>3307.5214285714287</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>77</v>
@@ -15471,23 +15471,23 @@
         <v>56</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D159" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B159,C159)</f>
+        <v>YCW4</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H159">
-        <v>1590.8428571428572</v>
+        <v>3258.05</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>77</v>
@@ -15504,23 +15504,23 @@
         <v>56</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D160" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW3</v>
+        <f>_xlfn.CONCAT(B160,C160)</f>
+        <v>YCW4</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H160">
-        <v>1215.5785714285714</v>
+        <v>1911.6857142857143</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>77</v>
@@ -15540,7 +15540,7 @@
         <v>54</v>
       </c>
       <c r="D161" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B161,C161)</f>
         <v>YCW4</v>
       </c>
       <c r="E161" s="2" t="s">
@@ -15550,10 +15550,10 @@
         <v>67</v>
       </c>
       <c r="G161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>3038.9285714285716</v>
+        <v>1178.3928571428571</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>77</v>
@@ -15573,7 +15573,7 @@
         <v>54</v>
       </c>
       <c r="D162" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B162,C162)</f>
         <v>YCW4</v>
       </c>
       <c r="E162" s="2" t="s">
@@ -15606,7 +15606,7 @@
         <v>54</v>
       </c>
       <c r="D163" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B163,C163)</f>
         <v>YCW4</v>
       </c>
       <c r="E163" s="2" t="s">
@@ -15639,7 +15639,7 @@
         <v>54</v>
       </c>
       <c r="D164" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B164,C164)</f>
         <v>YCW4</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -15649,10 +15649,10 @@
         <v>67</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H164">
-        <v>1178.3928571428571</v>
+        <v>2132.2428571428572</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>77</v>
@@ -15672,7 +15672,7 @@
         <v>54</v>
       </c>
       <c r="D165" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B165,C165)</f>
         <v>YCW4</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -15682,10 +15682,10 @@
         <v>67</v>
       </c>
       <c r="G165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H165">
-        <v>2132.2428571428572</v>
+        <v>3038.9285714285716</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>77</v>
@@ -15705,7 +15705,7 @@
         <v>54</v>
       </c>
       <c r="D166" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B166,C166)</f>
         <v>YCW4</v>
       </c>
       <c r="E166" s="2" t="s">
@@ -15715,10 +15715,10 @@
         <v>63</v>
       </c>
       <c r="G166">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>1905.0571428571429</v>
+        <v>3184.4071428571428</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>77</v>
@@ -15738,7 +15738,7 @@
         <v>54</v>
       </c>
       <c r="D167" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B167,C167)</f>
         <v>YCW4</v>
       </c>
       <c r="E167" s="2" t="s">
@@ -15748,16 +15748,16 @@
         <v>63</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167">
-        <v>3184.4071428571428</v>
+        <v>3192</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -15771,7 +15771,7 @@
         <v>4</v>
       </c>
       <c r="D168" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B168,C168)</f>
         <v>YCW4</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -15804,7 +15804,7 @@
         <v>54</v>
       </c>
       <c r="D169" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B169,C169)</f>
         <v>YCW4</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -15814,10 +15814,10 @@
         <v>63</v>
       </c>
       <c r="G169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H169">
-        <v>1477.2428571428572</v>
+        <v>1905.0571428571429</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>77</v>
@@ -15837,7 +15837,7 @@
         <v>54</v>
       </c>
       <c r="D170" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B170,C170)</f>
         <v>YCW4</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -15847,16 +15847,16 @@
         <v>63</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H170">
-        <v>3192</v>
+        <v>1477.2428571428572</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -15867,11 +15867,11 @@
         <v>56</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D171" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B171,C171)</f>
+        <v>YCW4</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>72</v>
@@ -15880,16 +15880,16 @@
         <v>60</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>835.87857142857138</v>
+        <v>1853</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -15900,11 +15900,11 @@
         <v>56</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D172" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B172,C172)</f>
+        <v>YCW4</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>72</v>
@@ -15913,10 +15913,10 @@
         <v>60</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172">
-        <v>2437.4</v>
+        <v>1858.5642857142857</v>
       </c>
       <c r="I172" s="2" t="s">
         <v>77</v>
@@ -15933,11 +15933,11 @@
         <v>56</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D173" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B173,C173)</f>
+        <v>YCW4</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>72</v>
@@ -15949,7 +15949,7 @@
         <v>3</v>
       </c>
       <c r="H173">
-        <v>1381.45</v>
+        <v>1798.1714285714286</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>77</v>
@@ -15966,11 +15966,11 @@
         <v>56</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D174" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B174,C174)</f>
+        <v>YCW4</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>72</v>
@@ -15982,7 +15982,7 @@
         <v>4</v>
       </c>
       <c r="H174">
-        <v>2096.7285714285713</v>
+        <v>1475.0928571428572</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>77</v>
@@ -15999,11 +15999,11 @@
         <v>56</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D175" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>YCW1</v>
+        <f>_xlfn.CONCAT(B175,C175)</f>
+        <v>YCW4</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>72</v>
@@ -16015,7 +16015,7 @@
         <v>5</v>
       </c>
       <c r="H175">
-        <v>1752.7642857142857</v>
+        <v>2328.5928571428572</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>77</v>
@@ -16025,6 +16025,14 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K175">
+    <sortCondition ref="A2:A175"/>
+    <sortCondition ref="B2:B175"/>
+    <sortCondition ref="C2:C175"/>
+    <sortCondition ref="E2:E175"/>
+    <sortCondition ref="F2:F175"/>
+    <sortCondition ref="G2:G175"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>